--- a/thabs_PHD/MV_mortality table.xlsx
+++ b/thabs_PHD/MV_mortality table.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sempajb\Documents\GitHub\Contractual_wk\thabs_PHD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{624CC314-D1CA-4A7E-BE64-5C0B836E93EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD5D0B6-24A0-46DF-B463-AE9DF66DA041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{B50FBFE2-7444-4A8A-B71B-373D504BC3D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B50FBFE2-7444-4A8A-B71B-373D504BC3D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>term</t>
   </si>
@@ -85,6 +86,15 @@
   </si>
   <si>
     <t>Variables</t>
+  </si>
+  <si>
+    <t>(Intercept)</t>
+  </si>
+  <si>
+    <t>ACTH</t>
+  </si>
+  <si>
+    <t>Stimulated_cortisol</t>
   </si>
 </sst>
 </file>
@@ -120,8 +130,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DEB78A6-F010-4A5F-B28A-E4DED6961795}">
-  <dimension ref="B2:K15"/>
+  <dimension ref="A2:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:H15"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,15 +533,15 @@
         <v>1.01039302</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H7" si="0">EXP(C4)</f>
+        <f>EXP(C4)</f>
         <v>1.3734812840567086</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:J7" si="1">EXP(E4)</f>
+        <f>EXP(E4)</f>
         <v>0.68681121001279966</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
+        <f>EXP(F4)</f>
         <v>2.7466803032048674</v>
       </c>
       <c r="K4">
@@ -554,15 +565,15 @@
         <v>0.10514490999999999</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f>EXP(C5)</f>
         <v>0.98330143286189686</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
+        <f>EXP(E5)</f>
         <v>0.87038117508832591</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f>EXP(F5)</f>
         <v>1.1108715750926703</v>
       </c>
       <c r="K5">
@@ -586,15 +597,15 @@
         <v>0.14224036000000001</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f>EXP(C6)</f>
         <v>0.84592556320694101</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f>EXP(E6)</f>
         <v>0.62071193217995146</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f>EXP(F6)</f>
         <v>1.1528537151567797</v>
       </c>
       <c r="K6">
@@ -618,15 +629,15 @@
         <v>5.248879E-2</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f>EXP(C7)</f>
         <v>1.0220160743657043</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
+        <f>EXP(E7)</f>
         <v>0.99110544766497766</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f>EXP(F7)</f>
         <v>1.053890747897035</v>
       </c>
       <c r="K7">
@@ -735,7 +746,155 @@
         <v>0.159972</v>
       </c>
     </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>6.6815449200000003</v>
+      </c>
+      <c r="D21">
+        <v>3.6034752000000001E-3</v>
+      </c>
+      <c r="E21">
+        <v>2.3702713379999998</v>
+      </c>
+      <c r="F21">
+        <v>10.992818508999999</v>
+      </c>
+      <c r="H21">
+        <f>EXP(C21)</f>
+        <v>797.55031214641087</v>
+      </c>
+      <c r="I21">
+        <f>EXP(E21)</f>
+        <v>10.70029528696832</v>
+      </c>
+      <c r="J21">
+        <f>EXP(F21)</f>
+        <v>59445.696384857634</v>
+      </c>
+      <c r="K21">
+        <v>3.6034752000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>1.7788129999999999E-2</v>
+      </c>
+      <c r="D22">
+        <v>9.2376599700000006E-2</v>
+      </c>
+      <c r="E22">
+        <v>-3.1350039999999998E-3</v>
+      </c>
+      <c r="F22">
+        <v>3.8711267000000001E-2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ref="H22:H23" si="0">EXP(C22)</f>
+        <v>1.0179472810504786</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ref="I22:I23" si="1">EXP(E22)</f>
+        <v>0.99686990499379502</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ref="J22:J23" si="2">EXP(F22)</f>
+        <v>1.0394703109360717</v>
+      </c>
+      <c r="K22">
+        <v>9.2376599700000006E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>-1.7587829999999999E-2</v>
+      </c>
+      <c r="D23">
+        <v>1.082213E-4</v>
+      </c>
+      <c r="E23">
+        <v>-2.6013217000000002E-2</v>
+      </c>
+      <c r="F23">
+        <v>-9.1624380000000002E-3</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>0.98256593310924689</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>0.97432221190697244</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>0.99087940922997575</v>
+      </c>
+      <c r="K23">
+        <v>1.082213E-4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09EEDAAD-2B5A-4B31-9275-73162A6ADD10}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/thabs_PHD/MV_mortality table.xlsx
+++ b/thabs_PHD/MV_mortality table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sempajb\Documents\GitHub\Contractual_wk\thabs_PHD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOE\Documents\GitHub\Contractual_wk\thabs_PHD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD5D0B6-24A0-46DF-B463-AE9DF66DA041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E11086D-E8E7-4B6D-A6AA-283C9647FAB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B50FBFE2-7444-4A8A-B71B-373D504BC3D5}"/>
   </bookViews>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
   <si>
     <t>term</t>
   </si>
@@ -95,6 +86,54 @@
   </si>
   <si>
     <t>Stimulated_cortisol</t>
+  </si>
+  <si>
+    <t>std.error</t>
+  </si>
+  <si>
+    <t>statistic</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>Addison's</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, </t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>0.437 (0.192, 0.9943</t>
+  </si>
+  <si>
+    <t>0.821 (0.4618, 1.4596</t>
+  </si>
+  <si>
+    <t>0.998 (0.9381, 1.0612</t>
+  </si>
+  <si>
+    <t>0.888 (0.6919, 1.1392</t>
+  </si>
+  <si>
+    <t>1.021 (0.9897, 1.0532</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Adj. HR  (95% CI)</t>
   </si>
 </sst>
 </file>
@@ -447,15 +486,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DEB78A6-F010-4A5F-B28A-E4DED6961795}">
-  <dimension ref="A2:K23"/>
+  <dimension ref="A2:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="H9" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19:P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -484,7 +523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -505,18 +544,18 @@
         <v>1.428865753259962</v>
       </c>
       <c r="I3">
-        <f>EXP(E3)</f>
+        <f t="shared" ref="I3:J7" si="0">EXP(E3)</f>
         <v>0.5119766563747955</v>
       </c>
       <c r="J3">
-        <f>EXP(F3)</f>
+        <f t="shared" si="0"/>
         <v>3.9877937774789731</v>
       </c>
       <c r="K3">
         <v>0.48422199999999999</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -537,18 +576,18 @@
         <v>1.3734812840567086</v>
       </c>
       <c r="I4">
-        <f>EXP(E4)</f>
+        <f t="shared" si="0"/>
         <v>0.68681121001279966</v>
       </c>
       <c r="J4">
-        <f>EXP(F4)</f>
+        <f t="shared" si="0"/>
         <v>2.7466803032048674</v>
       </c>
       <c r="K4">
         <v>0.26352439999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -569,18 +608,18 @@
         <v>0.98330143286189686</v>
       </c>
       <c r="I5">
-        <f>EXP(E5)</f>
+        <f t="shared" si="0"/>
         <v>0.87038117508832591</v>
       </c>
       <c r="J5">
-        <f>EXP(F5)</f>
+        <f t="shared" si="0"/>
         <v>1.1108715750926703</v>
       </c>
       <c r="K5">
         <v>0.72195640000000005</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -601,18 +640,18 @@
         <v>0.84592556320694101</v>
       </c>
       <c r="I6">
-        <f>EXP(E6)</f>
+        <f t="shared" si="0"/>
         <v>0.62071193217995146</v>
       </c>
       <c r="J6">
-        <f>EXP(F6)</f>
+        <f t="shared" si="0"/>
         <v>1.1528537151567797</v>
       </c>
       <c r="K6">
         <v>0.28101369999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -633,18 +672,18 @@
         <v>1.0220160743657043</v>
       </c>
       <c r="I7">
-        <f>EXP(E7)</f>
+        <f t="shared" si="0"/>
         <v>0.99110544766497766</v>
       </c>
       <c r="J7">
-        <f>EXP(F7)</f>
+        <f t="shared" si="0"/>
         <v>1.053890747897035</v>
       </c>
       <c r="K7">
         <v>0.159972</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>16</v>
       </c>
@@ -661,7 +700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>11</v>
       </c>
@@ -677,8 +716,32 @@
       <c r="H11">
         <v>0.48422199999999999</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>12</v>
       </c>
@@ -694,8 +757,45 @@
       <c r="H12">
         <v>0.26352439999999999</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12">
+        <v>-0.82811646800000005</v>
+      </c>
+      <c r="N12">
+        <v>0.40719165000000002</v>
+      </c>
+      <c r="O12">
+        <v>-2.03372653</v>
+      </c>
+      <c r="P12">
+        <v>40.937727000000002</v>
+      </c>
+      <c r="Q12">
+        <v>4.8494919999999997E-2</v>
+      </c>
+      <c r="R12">
+        <v>-1.6504946899999999</v>
+      </c>
+      <c r="S12">
+        <v>-5.7382509999999998E-3</v>
+      </c>
+      <c r="T12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W12" t="str">
+        <f>CONCATENATE(ROUND(EXP(M12), 3),T12,ROUND(EXP(R12),4),U12,ROUND(EXP(S12),4))</f>
+        <v>0.437 (0.192, 0.9943</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>13</v>
       </c>
@@ -711,8 +811,45 @@
       <c r="H13">
         <v>0.72195640000000005</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13">
+        <v>-0.197208249</v>
+      </c>
+      <c r="N13">
+        <v>0.28571402000000001</v>
+      </c>
+      <c r="O13">
+        <v>-0.69022952000000004</v>
+      </c>
+      <c r="P13">
+        <v>45.277619999999999</v>
+      </c>
+      <c r="Q13">
+        <v>0.49357294000000002</v>
+      </c>
+      <c r="R13">
+        <v>-0.77256844999999996</v>
+      </c>
+      <c r="S13">
+        <v>0.37815195099999999</v>
+      </c>
+      <c r="T13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U13" t="s">
+        <v>27</v>
+      </c>
+      <c r="V13" t="s">
+        <v>28</v>
+      </c>
+      <c r="W13" t="str">
+        <f t="shared" ref="W13:W16" si="1">CONCATENATE(ROUND(EXP(M13), 3),T13,ROUND(EXP(R13),4),U13,ROUND(EXP(S13),4))</f>
+        <v>0.821 (0.4618, 1.4596</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>14</v>
       </c>
@@ -728,8 +865,45 @@
       <c r="H14">
         <v>0.28101369999999998</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>-2.2433869999999999E-3</v>
+      </c>
+      <c r="N14">
+        <v>2.6924770000000001E-2</v>
+      </c>
+      <c r="O14">
+        <v>-8.3320569999999997E-2</v>
+      </c>
+      <c r="P14">
+        <v>8.3791340000000005</v>
+      </c>
+      <c r="Q14">
+        <v>0.93555297000000004</v>
+      </c>
+      <c r="R14">
+        <v>-6.3846390000000003E-2</v>
+      </c>
+      <c r="S14">
+        <v>5.9359620000000002E-2</v>
+      </c>
+      <c r="T14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U14" t="s">
+        <v>27</v>
+      </c>
+      <c r="V14" t="s">
+        <v>28</v>
+      </c>
+      <c r="W14" t="str">
+        <f t="shared" si="1"/>
+        <v>0.998 (0.9381, 1.0612</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>15</v>
       </c>
@@ -745,8 +919,95 @@
       <c r="H15">
         <v>0.159972</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15">
+        <v>-0.118944667</v>
+      </c>
+      <c r="N15">
+        <v>0.12382395</v>
+      </c>
+      <c r="O15">
+        <v>-0.96059497999999999</v>
+      </c>
+      <c r="P15">
+        <v>45.627698000000002</v>
+      </c>
+      <c r="Q15">
+        <v>0.34181889999999998</v>
+      </c>
+      <c r="R15">
+        <v>-0.36824425</v>
+      </c>
+      <c r="S15">
+        <v>0.13035491499999999</v>
+      </c>
+      <c r="T15" t="s">
+        <v>26</v>
+      </c>
+      <c r="U15" t="s">
+        <v>27</v>
+      </c>
+      <c r="V15" t="s">
+        <v>28</v>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="1"/>
+        <v>0.888 (0.6919, 1.1392</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16">
+        <v>2.0727300000000001E-2</v>
+      </c>
+      <c r="N16">
+        <v>1.542522E-2</v>
+      </c>
+      <c r="O16">
+        <v>1.3437283799999999</v>
+      </c>
+      <c r="P16">
+        <v>43.121794000000001</v>
+      </c>
+      <c r="Q16">
+        <v>0.18606448</v>
+      </c>
+      <c r="R16">
+        <v>-1.037807E-2</v>
+      </c>
+      <c r="S16">
+        <v>5.1832672000000003E-2</v>
+      </c>
+      <c r="T16" t="s">
+        <v>26</v>
+      </c>
+      <c r="U16" t="s">
+        <v>27</v>
+      </c>
+      <c r="V16" t="s">
+        <v>28</v>
+      </c>
+      <c r="W16" t="str">
+        <f t="shared" si="1"/>
+        <v>1.021 (0.9897, 1.0532</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -774,8 +1035,18 @@
       <c r="K20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>23</v>
+      </c>
+      <c r="O20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20">
+        <f>Q12</f>
+        <v>4.8494919999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -809,8 +1080,18 @@
       <c r="K21">
         <v>3.6034752000000001E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21">
+        <f t="shared" ref="P21:P24" si="2">Q13</f>
+        <v>0.49357294000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -830,22 +1111,32 @@
         <v>3.8711267000000001E-2</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22:H23" si="0">EXP(C22)</f>
+        <f t="shared" ref="H22:H23" si="3">EXP(C22)</f>
         <v>1.0179472810504786</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22:I23" si="1">EXP(E22)</f>
+        <f t="shared" ref="I22:I23" si="4">EXP(E22)</f>
         <v>0.99686990499379502</v>
       </c>
       <c r="J22">
-        <f t="shared" ref="J22:J23" si="2">EXP(F22)</f>
+        <f t="shared" ref="J22:J23" si="5">EXP(F22)</f>
         <v>1.0394703109360717</v>
       </c>
       <c r="K22">
         <v>9.2376599700000006E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" t="s">
+        <v>31</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="2"/>
+        <v>0.93555297000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -865,23 +1156,46 @@
         <v>-9.1624380000000002E-3</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.98256593310924689</v>
       </c>
       <c r="I23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.97432221190697244</v>
       </c>
       <c r="J23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.99087940922997575</v>
       </c>
       <c r="K23">
         <v>1.082213E-4</v>
       </c>
+      <c r="N23" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="2"/>
+        <v>0.34181889999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>15</v>
+      </c>
+      <c r="O24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="2"/>
+        <v>0.18606448</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
